--- a/01_data/01_raw/Data_landing_log.xlsx
+++ b/01_data/01_raw/Data_landing_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jelinden\Documents\02-Personal\opp\inform2\Aufgabe\01_data\01_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0E40D6-A848-4B1B-82E4-12A63E3A89D6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530E4411-A580-4FF5-8F85-43E6F3B0854F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12768" xr2:uid="{FB666A1F-DAF6-475A-9820-6C1115778B96}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>Used in analyses</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Appears to be subset of ID04</t>
+  </si>
+  <si>
+    <t>ID04</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>CSV delimitation not correct in original data; manually adjusted before read in R</t>
   </si>
 </sst>
 </file>
@@ -485,7 +500,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED079556-87F9-436C-9AE6-9D8C120CDDFF}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -494,13 +511,13 @@
     <col min="3" max="3" width="46.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,6 +559,9 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -559,6 +579,9 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -576,10 +599,16 @@
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -592,6 +621,12 @@
       </c>
       <c r="E5" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/01_data/01_raw/Data_landing_log.xlsx
+++ b/01_data/01_raw/Data_landing_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jelinden\Documents\02-Personal\opp\inform2\Aufgabe\01_data\01_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530E4411-A580-4FF5-8F85-43E6F3B0854F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5F4153-B64E-4048-AD63-7225B08E33A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12768" xr2:uid="{FB666A1F-DAF6-475A-9820-6C1115778B96}"/>
   </bookViews>
@@ -500,9 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED079556-87F9-436C-9AE6-9D8C120CDDFF}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -626,7 +624,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
